--- a/biology/Botanique/Chamaedorea_seifrizii/Chamaedorea_seifrizii.xlsx
+++ b/biology/Botanique/Chamaedorea_seifrizii/Chamaedorea_seifrizii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaedorea seifrizii est une espèce de palmiers, appelée palmier bambou (en anglais : Bamboo palm), palmier de salon ou encore palmier roseau (en anglais : Reed palm)[2] . C'est un palmier subtropical qui peut faire jusqu'à 200 cm de haut ; il est couramment utilisé comme plante d'intérieur[3]. Les feuilles persistantes sont pennées et les fleurs jaunes sont portées sur une panicule[4]. Les fruits sont petits, ronds et noirs[5].
-Originaire du Mexique et d'Amérique centrale, il pousse dans les habitats forestiers perturbés et dans les sols mésiques sur calcaire[5]. L'espèce a été introduite en Floride où elle est cultivée comme plante de haie[6]. Elle peut, dans certaines situations, s'échapper des cultures[7].
-L'espèce porte le nom du botaniste américain William Seifriz[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaedorea seifrizii est une espèce de palmiers, appelée palmier bambou (en anglais : Bamboo palm), palmier de salon ou encore palmier roseau (en anglais : Reed palm) . C'est un palmier subtropical qui peut faire jusqu'à 200 cm de haut ; il est couramment utilisé comme plante d'intérieur. Les feuilles persistantes sont pennées et les fleurs jaunes sont portées sur une panicule. Les fruits sont petits, ronds et noirs.
+Originaire du Mexique et d'Amérique centrale, il pousse dans les habitats forestiers perturbés et dans les sols mésiques sur calcaire. L'espèce a été introduite en Floride où elle est cultivée comme plante de haie. Elle peut, dans certaines situations, s'échapper des cultures.
+L'espèce porte le nom du botaniste américain William Seifriz.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>famille des Arecaceae
 sous-famille des Arecoideae
-tribu des Chamaedoreeae[8].</t>
+tribu des Chamaedoreeae.</t>
         </is>
       </c>
     </row>
